--- a/2025년 달력.xlsx
+++ b/2025년 달력.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shfkd\Desktop\fire1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\박준호\fire1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B22AA9-9A73-4FA4-9895-2542F07D5B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6274A1B-8040-4E64-A748-EB18605E5D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="3210" windowWidth="21600" windowHeight="11415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025년 달력" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="479">
   <si>
     <t>일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2141,48 +2141,6 @@
   <si>
     <t xml:space="preserve"> Ver.1.1 _'24.10.25</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10/28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 11/4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 11/7</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 11/8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 11/11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 11/13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> 11/14</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> (수능일/예정)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 11/15</t>
   </si>
   <si>
     <t xml:space="preserve"> 11/18</t>
@@ -2445,7 +2403,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2491,6 +2449,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2736,7 +2700,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2894,6 +2858,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3121,7 +3103,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O34" sqref="O34"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3211,27 +3193,13 @@
     </row>
     <row r="5" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20"/>
-      <c r="B5" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>197</v>
-      </c>
+      <c r="B5" s="53"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="53"/>
       <c r="J5" s="42" t="s">
         <v>80</v>
       </c>
@@ -3240,118 +3208,104 @@
     </row>
     <row r="6" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
       <c r="J6" s="10"/>
       <c r="K6" s="11"/>
       <c r="L6" s="20"/>
     </row>
     <row r="7" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
       <c r="J7" s="12"/>
       <c r="K7" s="13"/>
       <c r="L7" s="20"/>
     </row>
     <row r="8" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
       <c r="J8" s="12"/>
       <c r="K8" s="13"/>
       <c r="L8" s="20"/>
     </row>
     <row r="9" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
       <c r="J9" s="12"/>
       <c r="K9" s="13"/>
       <c r="L9" s="20"/>
     </row>
     <row r="10" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
       <c r="J10" s="12"/>
       <c r="K10" s="13"/>
       <c r="L10" s="20"/>
     </row>
     <row r="11" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
       <c r="J11" s="12"/>
       <c r="K11" s="13"/>
       <c r="L11" s="20"/>
     </row>
     <row r="12" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
       <c r="J12" s="14"/>
       <c r="K12" s="15"/>
       <c r="L12" s="20"/>
     </row>
     <row r="13" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
-      <c r="B13" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>200</v>
-      </c>
+      <c r="B13" s="53"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="53"/>
       <c r="J13" s="42" t="s">
         <v>80</v>
       </c>
@@ -3360,126 +3314,112 @@
     </row>
     <row r="14" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
       <c r="J14" s="10">
         <v>1</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="L14" s="20"/>
     </row>
     <row r="15" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
       <c r="J15" s="12">
         <v>2</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="L15" s="20"/>
     </row>
     <row r="16" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
       <c r="J16" s="12"/>
       <c r="K16" s="13"/>
       <c r="L16" s="20"/>
     </row>
     <row r="17" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
       <c r="J17" s="12"/>
       <c r="K17" s="13"/>
       <c r="L17" s="20"/>
     </row>
     <row r="18" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
       <c r="J18" s="12"/>
       <c r="K18" s="13"/>
       <c r="L18" s="20"/>
     </row>
     <row r="19" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
       <c r="J19" s="12"/>
       <c r="K19" s="13"/>
       <c r="L19" s="20"/>
     </row>
     <row r="20" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
       <c r="J20" s="14"/>
       <c r="K20" s="15"/>
       <c r="L20" s="20"/>
     </row>
     <row r="21" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
-      <c r="B21" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>203</v>
-      </c>
+      <c r="B21" s="53"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="53"/>
       <c r="J21" s="42" t="s">
         <v>80</v>
       </c>
@@ -3488,99 +3428,99 @@
     </row>
     <row r="22" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
       <c r="J22" s="10">
         <v>1</v>
       </c>
       <c r="K22" s="11" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="L22" s="20"/>
     </row>
     <row r="23" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
       <c r="J23" s="12">
         <v>2</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="L23" s="20"/>
     </row>
     <row r="24" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
       <c r="J24" s="12"/>
       <c r="K24" s="13"/>
       <c r="L24" s="20"/>
     </row>
     <row r="25" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
       <c r="J25" s="12"/>
       <c r="K25" s="13"/>
       <c r="L25" s="20"/>
     </row>
     <row r="26" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
       <c r="J26" s="12"/>
       <c r="K26" s="13"/>
       <c r="L26" s="20"/>
     </row>
     <row r="27" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
       <c r="J27" s="12"/>
       <c r="K27" s="13"/>
       <c r="L27" s="20"/>
     </row>
     <row r="28" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
       <c r="J28" s="14"/>
       <c r="K28" s="15"/>
       <c r="L28" s="20"/>
@@ -3591,7 +3531,7 @@
         <v>204</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>205</v>
@@ -3603,7 +3543,7 @@
         <v>70</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>206</v>
@@ -3620,7 +3560,7 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -3629,7 +3569,7 @@
         <v>1</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="L30" s="20"/>
     </row>
@@ -3646,7 +3586,7 @@
         <v>2</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="L31" s="20"/>
     </row>
@@ -3663,7 +3603,7 @@
         <v>3</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="L32" s="20"/>
     </row>
@@ -3678,7 +3618,7 @@
       <c r="H33" s="4"/>
       <c r="J33" s="12"/>
       <c r="K33" s="13" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="L33" s="20"/>
     </row>
@@ -3695,7 +3635,7 @@
         <v>4</v>
       </c>
       <c r="K34" s="13" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="L34" s="20"/>
     </row>
@@ -3731,7 +3671,7 @@
         <v>207</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>208</v>
@@ -3743,7 +3683,7 @@
         <v>72</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>209</v>
@@ -3848,10 +3788,10 @@
     <row r="45" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="20"/>
       <c r="B45" s="7" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>210</v>
@@ -3863,7 +3803,7 @@
         <v>74</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="H45" s="7" t="s">
         <v>211</v>
@@ -3968,22 +3908,22 @@
     <row r="53" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="20"/>
       <c r="B53" s="7" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="H53" s="7" t="s">
         <v>212</v>
@@ -4088,22 +4028,22 @@
     <row r="61" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="20"/>
       <c r="B61" s="7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="H61" s="7" t="s">
         <v>213</v>
@@ -4211,7 +4151,7 @@
         <v>214</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>215</v>
@@ -4223,7 +4163,7 @@
         <v>75</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="H69" s="7" t="s">
         <v>217</v>
@@ -11103,6 +11043,35 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="J213:K213"/>
+    <mergeCell ref="J221:K221"/>
+    <mergeCell ref="J349:K349"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="J229:K229"/>
+    <mergeCell ref="J237:K237"/>
+    <mergeCell ref="J245:K245"/>
+    <mergeCell ref="J253:K253"/>
+    <mergeCell ref="J261:K261"/>
+    <mergeCell ref="J269:K269"/>
+    <mergeCell ref="J277:K277"/>
+    <mergeCell ref="J285:K285"/>
+    <mergeCell ref="J293:K293"/>
+    <mergeCell ref="J301:K301"/>
+    <mergeCell ref="J309:K309"/>
+    <mergeCell ref="J317:K317"/>
+    <mergeCell ref="J325:K325"/>
+    <mergeCell ref="J333:K333"/>
+    <mergeCell ref="J341:K341"/>
+    <mergeCell ref="J357:K357"/>
+    <mergeCell ref="J365:K365"/>
+    <mergeCell ref="J373:K373"/>
+    <mergeCell ref="J381:K381"/>
+    <mergeCell ref="J389:K389"/>
+    <mergeCell ref="J397:K397"/>
+    <mergeCell ref="J405:K405"/>
+    <mergeCell ref="J413:K413"/>
+    <mergeCell ref="J421:K421"/>
+    <mergeCell ref="J429:K429"/>
     <mergeCell ref="J437:K437"/>
     <mergeCell ref="J445:K445"/>
     <mergeCell ref="J493:K493"/>
@@ -11112,35 +11081,6 @@
     <mergeCell ref="J469:K469"/>
     <mergeCell ref="J477:K477"/>
     <mergeCell ref="J485:K485"/>
-    <mergeCell ref="J397:K397"/>
-    <mergeCell ref="J405:K405"/>
-    <mergeCell ref="J413:K413"/>
-    <mergeCell ref="J421:K421"/>
-    <mergeCell ref="J429:K429"/>
-    <mergeCell ref="J357:K357"/>
-    <mergeCell ref="J365:K365"/>
-    <mergeCell ref="J373:K373"/>
-    <mergeCell ref="J381:K381"/>
-    <mergeCell ref="J389:K389"/>
-    <mergeCell ref="J309:K309"/>
-    <mergeCell ref="J317:K317"/>
-    <mergeCell ref="J325:K325"/>
-    <mergeCell ref="J333:K333"/>
-    <mergeCell ref="J341:K341"/>
-    <mergeCell ref="J269:K269"/>
-    <mergeCell ref="J277:K277"/>
-    <mergeCell ref="J285:K285"/>
-    <mergeCell ref="J293:K293"/>
-    <mergeCell ref="J301:K301"/>
-    <mergeCell ref="J229:K229"/>
-    <mergeCell ref="J237:K237"/>
-    <mergeCell ref="J245:K245"/>
-    <mergeCell ref="J253:K253"/>
-    <mergeCell ref="J261:K261"/>
-    <mergeCell ref="J213:K213"/>
-    <mergeCell ref="J221:K221"/>
-    <mergeCell ref="J349:K349"/>
-    <mergeCell ref="B2:H2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2025년 달력.xlsx
+++ b/2025년 달력.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shfkd\Desktop\fire1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2135CA9F-73A6-46A9-BF9B-5A11274E242A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500EAB87-76EE-460C-A344-FEA12D9F2CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025년 달력" sheetId="3" r:id="rId1"/>
     <sheet name="25년 연휴 총정리" sheetId="5" r:id="rId2"/>
     <sheet name="유용한 자료 모음" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="505">
   <si>
     <t>일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2315,12 +2316,44 @@
     <t>러닝 10k</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">sop 100번대 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공부 스택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행정법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소방공무원법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위험물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2475,8 +2508,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2522,6 +2562,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2812,7 +2858,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2986,6 +3032,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3210,9 +3265,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8EC09CF-B552-4229-B8E1-CBEF5AE292C1}">
   <dimension ref="A1:L508"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F41" sqref="F41"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4808,7 +4863,9 @@
       <c r="A102" s="17"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
+      <c r="D102" s="3" t="s">
+        <v>497</v>
+      </c>
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
@@ -11746,4 +11803,67 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F34D799B-AE1E-4783-8E51-E8F6115B3AC3}">
+  <dimension ref="B2:Z7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:26" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B2" s="58" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="4" spans="2:26" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B4" s="58" t="s">
+        <v>499</v>
+      </c>
+      <c r="H4" s="58" t="s">
+        <v>500</v>
+      </c>
+      <c r="N4" s="58" t="s">
+        <v>501</v>
+      </c>
+      <c r="U4" s="58" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="U5" s="59" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="U6">
+        <v>100</v>
+      </c>
+      <c r="V6">
+        <v>200</v>
+      </c>
+      <c r="W6">
+        <v>300</v>
+      </c>
+      <c r="X6">
+        <v>400</v>
+      </c>
+      <c r="Y6">
+        <v>500</v>
+      </c>
+      <c r="Z6" s="59" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="U7" s="60"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>